--- a/blog Milestone 3.xlsx
+++ b/blog Milestone 3.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradheep\Desktop\Library-Management-System-COEN-6312\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64280FE6-E1E1-4272-8098-0669FBA61573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="203">
   <si>
     <t>Team Members</t>
   </si>
@@ -548,6 +529,18 @@
     <t>Implementation of OCLs</t>
   </si>
   <si>
+    <t>OCL Search</t>
+  </si>
+  <si>
+    <t>OCL brainstorming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found OCLs </t>
+  </si>
+  <si>
+    <t>Coding and Test</t>
+  </si>
+  <si>
     <t>Code Reviews</t>
   </si>
   <si>
@@ -557,18 +550,57 @@
     <t>Report work</t>
   </si>
   <si>
+    <t>Edit Report</t>
+  </si>
+  <si>
+    <t>implementation of the OCL table</t>
+  </si>
+  <si>
+    <t>Drawing object diagrams</t>
+  </si>
+  <si>
+    <t>Building diagrams in accordance to OCLs</t>
+  </si>
+  <si>
     <t>Report Work</t>
   </si>
   <si>
     <t>Started writing the report</t>
   </si>
   <si>
+    <t>OCL coding</t>
+  </si>
+  <si>
+    <t>OCL implemented successfully</t>
+  </si>
+  <si>
+    <t>90 percent of assigned OCL implemented</t>
+  </si>
+  <si>
     <t>Discussion on report</t>
   </si>
   <si>
     <t>Discussed on the report work</t>
   </si>
   <si>
+    <t>OCLcode review and OCL writing</t>
+  </si>
+  <si>
+    <t>Code refactor and OCL writing</t>
+  </si>
+  <si>
+    <t>Orgnized code for OCL and OCL in written form</t>
+  </si>
+  <si>
+    <t>OCL diagrams</t>
+  </si>
+  <si>
+    <t>Editing diagram in Report</t>
+  </si>
+  <si>
+    <t>Formatting and segregating</t>
+  </si>
+  <si>
     <t>Completed the report</t>
   </si>
   <si>
@@ -591,34 +623,19 @@
   </si>
   <si>
     <t>Total team hours over project</t>
-  </si>
-  <si>
-    <t>Edit Report</t>
-  </si>
-  <si>
-    <t>Formatting and segregating</t>
-  </si>
-  <si>
-    <t>Drawing object diagrams</t>
-  </si>
-  <si>
-    <t>Building diagrams in accordance to OCLs</t>
-  </si>
-  <si>
-    <t>implementation of the OCL table</t>
-  </si>
-  <si>
-    <t>Coding and Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\-mmm\-yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +650,145 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,54 +801,190 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -747,9 +1037,53 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -942,65 +1276,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1009,87 +1609,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="4" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1376,1109 +1990,1109 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T113" sqref="T113"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="3.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="3.88888888888889" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="2.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="3.88888888888889" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1"/>
-    <col min="19" max="19" width="35.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="21.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="25.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="35.6666666666667" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.1111111111111" customWidth="1"/>
+    <col min="25" max="25" width="9.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1">
-      <c r="H3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="50"/>
-      <c r="S3" s="52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="H4" s="8"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="51"/>
-      <c r="S4" s="52"/>
-    </row>
-    <row r="5" spans="1:19" ht="28.8">
-      <c r="H5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="15" t="s">
+    <row r="3" ht="16.5" customHeight="1" spans="8:19">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="S3" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="15.9" spans="8:19">
+      <c r="H4" s="2"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" ht="29.55" spans="8:19">
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="S5" s="52"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="H6" s="10" t="s">
+      <c r="K5" s="21"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="8:19">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="H7" s="10" t="s">
+      <c r="K6" s="25"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="8:19">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="S7" s="52"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="H8" s="10" t="s">
+      <c r="K7" s="25"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="8" spans="8:19">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="H9" s="10" t="s">
+      <c r="K8" s="25"/>
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="8:19">
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="H10" s="10" t="s">
+      <c r="K9" s="25"/>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="8:19">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="H11" s="11" t="s">
+      <c r="K10" s="25"/>
+      <c r="S10" s="40"/>
+    </row>
+    <row r="11" spans="8:19">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="K11" s="27"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="19:19">
       <c r="S12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:18">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="48" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="33"/>
-    </row>
-    <row r="16" spans="1:19" ht="28.8">
-      <c r="A16" s="47"/>
-      <c r="B16" s="2" t="str">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="9" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="9" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="9" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="9" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="9" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="2" t="str">
+      <c r="H16" s="8"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9" t="str">
         <f>$J$6</f>
         <v>Sai</v>
       </c>
-      <c r="M16" s="2" t="str">
+      <c r="M16" s="9" t="str">
         <f>$J$7</f>
         <v>SV</v>
       </c>
-      <c r="N16" s="2" t="str">
+      <c r="N16" s="9" t="str">
         <f>$J$8</f>
         <v>Kavya</v>
       </c>
-      <c r="O16" s="2" t="str">
+      <c r="O16" s="9" t="str">
         <f>$J$9</f>
         <v>PS</v>
       </c>
-      <c r="P16" s="2" t="str">
+      <c r="P16" s="9" t="str">
         <f>$J$10</f>
         <v>Het</v>
       </c>
-      <c r="Q16" s="2" t="str">
+      <c r="Q16" s="9" t="str">
         <f>$J$11</f>
         <v>AS</v>
       </c>
-      <c r="R16" s="31"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" ht="54" customHeight="1">
-      <c r="A18" s="5">
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:18">
+      <c r="A18" s="13">
         <v>45321</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="24">
-        <v>2</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="33">
+        <v>2</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="9">
         <f t="shared" ref="L18:Q18" si="0">B18*$I18</f>
         <v>2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" ht="54" customHeight="1">
-      <c r="A19" s="5">
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" ht="54" customHeight="1" spans="1:18">
+      <c r="A19" s="13">
         <v>45322</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="24">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="33">
         <v>3</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="9">
         <f t="shared" ref="L19:L33" si="1">B19*$I19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="9">
         <f t="shared" ref="M19:M33" si="2">C19*$I19</f>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="9">
         <f t="shared" ref="N19:N33" si="3">D19*$I19</f>
         <v>3</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="9">
         <f t="shared" ref="O19:O33" si="4">E19*$I19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="9">
         <f t="shared" ref="P19:P33" si="5">F19*$I19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="9">
         <f t="shared" ref="Q19:Q33" si="6">G19*$I19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" ht="54" customHeight="1">
-      <c r="A20" s="5">
+      <c r="R19" s="36"/>
+    </row>
+    <row r="20" ht="54" customHeight="1" spans="1:18">
+      <c r="A20" s="13">
         <v>45323</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="24">
-        <v>2</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="33">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" ht="54" customHeight="1">
-      <c r="A21" s="5">
+      <c r="R20" s="36"/>
+    </row>
+    <row r="21" ht="54" customHeight="1" spans="1:18">
+      <c r="A21" s="13">
         <v>45323</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="24">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="33">
         <v>3</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" ht="54" customHeight="1">
-      <c r="A22" s="5">
+      <c r="R21" s="36"/>
+    </row>
+    <row r="22" ht="54" customHeight="1" spans="1:18">
+      <c r="A22" s="13">
         <v>45324</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="24">
-        <v>2</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="33">
+        <v>2</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" ht="54" customHeight="1">
-      <c r="A23" s="5">
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" ht="54" customHeight="1" spans="1:18">
+      <c r="A23" s="13">
         <v>45324</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="24">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="33">
         <v>3</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R23" s="31"/>
-    </row>
-    <row r="24" spans="1:18" ht="54" customHeight="1">
-      <c r="A24" s="5">
+      <c r="R23" s="36"/>
+    </row>
+    <row r="24" ht="54" customHeight="1" spans="1:18">
+      <c r="A24" s="13">
         <v>45325</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="33">
+        <v>2</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" ht="43.2">
-      <c r="A25" s="5">
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:18">
+      <c r="A25" s="13">
         <v>45326</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="33">
         <v>3</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" ht="86.4">
-      <c r="A26" s="5">
+      <c r="R25" s="36"/>
+    </row>
+    <row r="26" ht="86.4" spans="1:18">
+      <c r="A26" s="13">
         <v>45330</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="24">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="33">
         <v>1.5</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="9">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R26" s="31"/>
+      <c r="R26" s="36"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="5">
+      <c r="A27" s="13">
         <v>45331</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="24">
-        <v>2</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="33">
+        <v>2</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R27" s="31"/>
-    </row>
-    <row r="28" spans="1:18" ht="28.8">
-      <c r="A28" s="5">
+      <c r="R27" s="36"/>
+    </row>
+    <row r="28" ht="28.8" spans="1:18">
+      <c r="A28" s="13">
         <v>45333</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="33">
         <v>3</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="9">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="9">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="R28" s="31"/>
-    </row>
-    <row r="29" spans="1:18" ht="57.6">
-      <c r="A29" s="5">
+      <c r="R28" s="36"/>
+    </row>
+    <row r="29" ht="57.6" spans="1:18">
+      <c r="A29" s="13">
         <v>45335</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="24">
-        <v>2</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="33">
+        <v>2</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="1:18" ht="28.8">
-      <c r="A30" s="5">
+      <c r="R29" s="36"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:18">
+      <c r="A30" s="13">
         <v>45338</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="33">
         <v>1.5</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="9">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R30" s="31"/>
-    </row>
-    <row r="31" spans="1:18" ht="43.2">
-      <c r="A31" s="5">
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" ht="43.2" spans="1:18">
+      <c r="A31" s="13">
         <v>45340</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="24">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="I31" s="33">
+        <v>1</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R31" s="31"/>
-    </row>
-    <row r="32" spans="1:18" ht="43.2">
-      <c r="A32" s="5">
+      <c r="R31" s="36"/>
+    </row>
+    <row r="32" ht="43.2" spans="1:18">
+      <c r="A32" s="13">
         <v>45340</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6" t="s">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="24">
-        <v>2</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="I32" s="33">
+        <v>2</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="9">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R32" s="31"/>
+      <c r="R32" s="36"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="5">
+      <c r="A33" s="13">
         <v>45340</v>
       </c>
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6" t="s">
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="24">
-        <v>2</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="R33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" ht="18" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="K34" s="25" t="s">
+      <c r="R33" s="36"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:18">
+      <c r="A34" s="15"/>
+      <c r="K34" s="34" t="s">
         <v>62</v>
       </c>
       <c r="L34">
@@ -2505,3968 +3119,4103 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="R34" s="31"/>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="K35" s="26" t="s">
+      <c r="R34" s="36"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1" spans="1:18">
+      <c r="A35" s="15"/>
+      <c r="K35" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="31">
+      <c r="P35" s="36"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="36">
         <f>SUM(L34:Q34)</f>
         <v>92.5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A36" s="7" t="s">
+    <row r="36" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A36" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="31"/>
-    </row>
-    <row r="37" spans="1:18" ht="51" customHeight="1">
-      <c r="A37" s="5">
+      <c r="L36" s="31"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="36"/>
+    </row>
+    <row r="37" ht="51" customHeight="1" spans="1:18">
+      <c r="A37" s="13">
         <v>45341</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="33">
         <v>2.5</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="37">
         <f t="shared" ref="L37" si="8">B37*$I37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="9">
         <f t="shared" ref="M37:Q38" si="9">C37*$I37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="9">
         <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
-      <c r="R37" s="31"/>
-    </row>
-    <row r="38" spans="1:18" ht="51" customHeight="1">
-      <c r="A38" s="5">
+      <c r="R37" s="36"/>
+    </row>
+    <row r="38" ht="51" customHeight="1" spans="1:18">
+      <c r="A38" s="13">
         <v>45342</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="33">
         <v>3</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="37">
         <f t="shared" ref="L38" si="10">B38*$I38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="9">
         <f t="shared" ref="M38" si="11">C38*$I38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="9">
         <v>3</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O38" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="9">
         <f t="shared" ref="P38" si="12">F38*$I38</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="31"/>
-    </row>
-    <row r="39" spans="1:18" ht="51" customHeight="1">
-      <c r="A39" s="5">
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="36"/>
+    </row>
+    <row r="39" ht="51" customHeight="1" spans="1:18">
+      <c r="A39" s="13">
         <v>45342</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="6" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="33">
         <v>3.5</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L39" s="37">
         <f t="shared" ref="L39:L87" si="13">B39*$I39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="9">
         <f t="shared" ref="M39:M89" si="14">C39*$I39</f>
         <v>0</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="9">
         <f t="shared" ref="N39:N89" si="15">D39*$I39</f>
         <v>0</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="9">
         <f t="shared" ref="O39:O89" si="16">E39*$I39</f>
         <v>0</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="9">
         <f t="shared" ref="P39:P89" si="17">F39*$I39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="9">
         <f t="shared" ref="Q39:Q89" si="18">G39*$I39</f>
         <v>3.5</v>
       </c>
-      <c r="R39" s="31"/>
-    </row>
-    <row r="40" spans="1:18" ht="51" customHeight="1">
-      <c r="A40" s="5">
+      <c r="R39" s="36"/>
+    </row>
+    <row r="40" ht="51" customHeight="1" spans="1:18">
+      <c r="A40" s="13">
         <v>45343</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="33">
         <v>3</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="27">
-        <v>0</v>
-      </c>
-      <c r="M40" s="27">
-        <v>0</v>
-      </c>
-      <c r="N40" s="27">
+      <c r="L40" s="37">
+        <v>0</v>
+      </c>
+      <c r="M40" s="37">
+        <v>0</v>
+      </c>
+      <c r="N40" s="37">
         <v>3</v>
       </c>
-      <c r="O40" s="27">
-        <v>0</v>
-      </c>
-      <c r="P40" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="27">
-        <v>0</v>
-      </c>
-      <c r="R40" s="31"/>
-    </row>
-    <row r="41" spans="1:18" ht="28.8">
-      <c r="A41" s="5">
+      <c r="O40" s="37">
+        <v>0</v>
+      </c>
+      <c r="P40" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="37">
+        <v>0</v>
+      </c>
+      <c r="R40" s="36"/>
+    </row>
+    <row r="41" ht="28.8" spans="1:18">
+      <c r="A41" s="13">
         <v>45343</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-      <c r="H41" s="6" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="24">
-        <v>2</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="I41" s="33">
+        <v>2</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L41" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="9">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R41" s="31"/>
-    </row>
-    <row r="42" spans="1:18" ht="28.8">
-      <c r="A42" s="5">
+      <c r="R41" s="36"/>
+    </row>
+    <row r="42" ht="28.8" spans="1:18">
+      <c r="A42" s="13">
         <v>45343</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="33">
         <v>3</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L42" s="27">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="L42" s="37">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
         <v>3</v>
       </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="31"/>
-    </row>
-    <row r="43" spans="1:18" ht="28.8">
-      <c r="A43" s="5">
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="36"/>
+    </row>
+    <row r="43" ht="28.8" spans="1:18">
+      <c r="A43" s="13">
         <v>45344</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="33">
         <v>3.5</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="9">
         <f t="shared" si="16"/>
         <v>3.5</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R43" s="31"/>
+      <c r="R43" s="36"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="5">
+      <c r="A44" s="13">
         <v>45344</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="33">
         <v>4.5</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L44" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="9">
         <v>4.5</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2">
+      <c r="O44" s="9"/>
+      <c r="P44" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R44" s="31"/>
-    </row>
-    <row r="45" spans="1:18" ht="43.2">
-      <c r="A45" s="5">
+      <c r="R44" s="36"/>
+    </row>
+    <row r="45" ht="43.2" spans="1:18">
+      <c r="A45" s="13">
         <v>45344</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="33">
         <v>3.5</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="37">
         <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R45" s="31"/>
-    </row>
-    <row r="46" spans="1:18" ht="28.8">
-      <c r="A46" s="5">
+      <c r="R45" s="36"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="13">
         <v>45345</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="s">
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="33">
         <v>3</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L46" s="37">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R46" s="31"/>
-    </row>
-    <row r="47" spans="1:18" ht="28.8">
-      <c r="A47" s="5">
+      <c r="R46" s="36"/>
+    </row>
+    <row r="47" ht="28.8" spans="1:18">
+      <c r="A47" s="13">
         <v>45345</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="33">
         <v>3</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R47" s="31"/>
-    </row>
-    <row r="48" spans="1:18" ht="28.8">
-      <c r="A48" s="5">
+      <c r="R47" s="36"/>
+    </row>
+    <row r="48" ht="28.8" spans="1:18">
+      <c r="A48" s="13">
         <v>45346</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I48" s="24">
-        <v>1</v>
-      </c>
-      <c r="J48" s="6" t="s">
+      <c r="I48" s="33">
+        <v>1</v>
+      </c>
+      <c r="J48" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R48" s="31"/>
-    </row>
-    <row r="49" spans="1:18" ht="43.2">
-      <c r="A49" s="5">
+      <c r="R48" s="36"/>
+    </row>
+    <row r="49" ht="43.2" spans="1:18">
+      <c r="A49" s="13">
         <v>45346</v>
       </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="24">
-        <v>2</v>
-      </c>
-      <c r="J49" s="6" t="s">
+      <c r="I49" s="33">
+        <v>2</v>
+      </c>
+      <c r="J49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="37">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R49" s="31"/>
-    </row>
-    <row r="50" spans="1:18" ht="100.8">
-      <c r="A50" s="5">
+      <c r="R49" s="36"/>
+    </row>
+    <row r="50" ht="100.8" spans="1:18">
+      <c r="A50" s="13">
         <v>45346</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="33">
         <v>3.5</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J50" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="9">
         <f t="shared" si="17"/>
         <v>3.5</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R50" s="31"/>
-    </row>
-    <row r="51" spans="1:18" ht="28.8">
-      <c r="A51" s="5">
+      <c r="R50" s="36"/>
+    </row>
+    <row r="51" ht="28.8" spans="1:18">
+      <c r="A51" s="13">
         <v>45347</v>
       </c>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6" t="s">
+      <c r="B51" s="14">
+        <v>1</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="33">
         <v>3</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="37">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="9">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="9">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="9">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="R51" s="31"/>
-    </row>
-    <row r="52" spans="1:18" ht="28.8">
-      <c r="A52" s="5">
+      <c r="R51" s="36"/>
+    </row>
+    <row r="52" ht="28.8" spans="1:18">
+      <c r="A52" s="13">
         <v>45347</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6">
-        <v>1</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14">
+        <v>1</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="24">
-        <v>1</v>
-      </c>
-      <c r="J52" s="6" t="s">
+      <c r="I52" s="33">
+        <v>1</v>
+      </c>
+      <c r="J52" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="9">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R52" s="31"/>
-    </row>
-    <row r="53" spans="1:18" ht="28.8">
-      <c r="A53" s="5">
+      <c r="R52" s="36"/>
+    </row>
+    <row r="53" ht="28.8" spans="1:18">
+      <c r="A53" s="13">
         <v>45347</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="33">
         <v>4</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="J53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="9">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R53" s="31"/>
+      <c r="R53" s="36"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="5">
+      <c r="A54" s="13">
         <v>45347</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
+      <c r="B54" s="14">
+        <v>1</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="24">
-        <v>2</v>
-      </c>
-      <c r="J54" s="6" t="s">
+      <c r="I54" s="33">
+        <v>2</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="37">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R54" s="31"/>
-    </row>
-    <row r="55" spans="1:18" ht="86.4">
-      <c r="A55" s="5">
+      <c r="R54" s="36"/>
+    </row>
+    <row r="55" ht="86.4" spans="1:18">
+      <c r="A55" s="13">
         <v>45347</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14">
+        <v>1</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="33">
         <v>3</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J55" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="9">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R55" s="31"/>
-    </row>
-    <row r="56" spans="1:18" ht="43.2">
-      <c r="A56" s="5">
+      <c r="R55" s="36"/>
+    </row>
+    <row r="56" ht="43.2" spans="1:18">
+      <c r="A56" s="13">
         <v>45347</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="24">
-        <v>2</v>
-      </c>
-      <c r="J56" s="6" t="s">
+      <c r="I56" s="33">
+        <v>2</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="K56" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="9">
         <v>3</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2">
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R56" s="31"/>
-    </row>
-    <row r="57" spans="1:18" ht="100.8">
-      <c r="A57" s="5">
+      <c r="R56" s="36"/>
+    </row>
+    <row r="57" ht="86.4" spans="1:18">
+      <c r="A57" s="13">
         <v>45348</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="33">
         <v>4</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="J57" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="9">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q57" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R57" s="31"/>
+      <c r="R57" s="36"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="5">
+      <c r="A58" s="13">
         <v>45349</v>
       </c>
-      <c r="B58" s="6">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="B58" s="14">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14">
+        <v>1</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14">
+        <v>1</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I58" s="24">
-        <v>2</v>
-      </c>
-      <c r="J58" s="6" t="s">
+      <c r="I58" s="33">
+        <v>2</v>
+      </c>
+      <c r="J58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="K58" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="37">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="9">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="9">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="9">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="P58" s="2">
+      <c r="P58" s="9">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="Q58" s="9">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R58" s="31"/>
-    </row>
-    <row r="59" spans="1:18" ht="43.2">
-      <c r="A59" s="5">
+      <c r="R58" s="36"/>
+    </row>
+    <row r="59" ht="43.2" spans="1:18">
+      <c r="A59" s="13">
         <v>45349</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="24">
+      <c r="I59" s="33">
         <v>3.5</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="K59" s="29" t="s">
+      <c r="K59" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="L59" s="27">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
+      <c r="L59" s="37">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9">
         <f t="shared" si="15"/>
         <v>3.5</v>
       </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="31"/>
-    </row>
-    <row r="60" spans="1:18" ht="28.8">
-      <c r="A60" s="5">
+      <c r="O59" s="9">
+        <v>0</v>
+      </c>
+      <c r="P59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>0</v>
+      </c>
+      <c r="R59" s="36"/>
+    </row>
+    <row r="60" ht="28.8" spans="1:18">
+      <c r="A60" s="13">
         <v>45349</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6">
-        <v>1</v>
-      </c>
-      <c r="H60" s="6" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I60" s="24">
+      <c r="I60" s="33">
         <v>3</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P60" s="2">
+      <c r="P60" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="Q60" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="R60" s="31"/>
-    </row>
-    <row r="61" spans="1:18" ht="43.2">
-      <c r="A61" s="5">
+      <c r="R60" s="36"/>
+    </row>
+    <row r="61" ht="43.2" spans="1:18">
+      <c r="A61" s="13">
         <v>45350</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14">
+        <v>1</v>
+      </c>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="33">
         <v>4</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J61" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="9">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="P61" s="2">
+      <c r="P61" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R61" s="31"/>
-    </row>
-    <row r="62" spans="1:18" ht="43.2">
-      <c r="A62" s="5">
+      <c r="R61" s="36"/>
+    </row>
+    <row r="62" ht="43.2" spans="1:17">
+      <c r="A62" s="13">
         <v>45350</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6">
-        <v>1</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14">
+        <v>1</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="33">
         <v>5</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="J62" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="9">
         <v>5</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2">
+      <c r="O62" s="9"/>
+      <c r="P62" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="43.2">
-      <c r="A63" s="5">
+    <row r="63" ht="43.2" spans="1:17">
+      <c r="A63" s="13">
         <v>45350</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="33">
         <v>3</v>
       </c>
-      <c r="J63" s="6" t="s">
+      <c r="J63" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K63" s="6" t="s">
+      <c r="K63" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L63" s="27">
+      <c r="L63" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2">
+      <c r="M63" s="9"/>
+      <c r="N63" s="9">
         <v>3</v>
       </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2">
+      <c r="O63" s="9"/>
+      <c r="P63" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="Q63" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="5">
+    <row r="64" spans="1:17">
+      <c r="A64" s="13">
         <v>45350</v>
       </c>
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="s">
+      <c r="B64" s="14">
+        <v>1</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I64" s="24">
-        <v>1</v>
-      </c>
-      <c r="J64" s="6" t="s">
+      <c r="I64" s="33">
+        <v>1</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L64" s="27">
+      <c r="L64" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P64" s="2">
+      <c r="P64" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="Q64" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="57.6">
-      <c r="A65" s="5">
+    <row r="65" ht="43.2" spans="1:17">
+      <c r="A65" s="13">
         <v>45351</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14">
+        <v>1</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I65" s="24">
+      <c r="I65" s="33">
         <v>3</v>
       </c>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L65" s="27">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="L65" s="37">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9">
         <v>3</v>
       </c>
-      <c r="O65" s="2">
-        <v>0</v>
-      </c>
-      <c r="P65" s="2">
+      <c r="O65" s="9">
+        <v>0</v>
+      </c>
+      <c r="P65" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="Q65" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="57.6">
-      <c r="A66" s="5">
+    <row r="66" ht="57.6" spans="1:18">
+      <c r="A66" s="13">
         <v>45351</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6" t="s">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14">
+        <v>1</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="33">
         <v>6</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L66" s="27">
+      <c r="L66" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O66" s="2">
+      <c r="O66" s="9">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="P66" s="2">
+      <c r="P66" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="Q66" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R66" s="31"/>
+      <c r="R66" s="36"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="5">
+      <c r="A67" s="13">
         <v>45351</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6">
-        <v>1</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I67" s="24">
+      <c r="I67" s="33">
         <v>3.5</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L67" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="9">
         <v>3.5</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2">
+      <c r="O67" s="9"/>
+      <c r="P67" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q67" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R67" s="31"/>
+      <c r="R67" s="36"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="5">
+      <c r="A68" s="13">
         <v>45351</v>
       </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6" t="s">
+      <c r="B68" s="14">
+        <v>1</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I68" s="24">
-        <v>1</v>
-      </c>
-      <c r="J68" s="6" t="s">
+      <c r="I68" s="33">
+        <v>1</v>
+      </c>
+      <c r="J68" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L68" s="27">
+      <c r="L68" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P68" s="2">
+      <c r="P68" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R68" s="31"/>
-    </row>
-    <row r="69" spans="1:18" ht="28.8">
-      <c r="A69" s="5">
+      <c r="R68" s="36"/>
+    </row>
+    <row r="69" ht="28.8" spans="1:18">
+      <c r="A69" s="13">
         <v>45351</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14">
+        <v>1</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="33">
         <v>3.5</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L69" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P69" s="2">
+      <c r="P69" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="9">
         <f t="shared" si="18"/>
         <v>3.5</v>
       </c>
-      <c r="R69" s="31"/>
+      <c r="R69" s="36"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="5">
+      <c r="A70" s="13">
         <v>45352</v>
       </c>
-      <c r="B70" s="6">
-        <v>1</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6" t="s">
+      <c r="B70" s="14">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I70" s="24">
-        <v>1</v>
-      </c>
-      <c r="J70" s="6" t="s">
+      <c r="I70" s="33">
+        <v>1</v>
+      </c>
+      <c r="J70" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="37">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O70" s="2">
+      <c r="O70" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P70" s="2">
+      <c r="P70" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="Q70" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R70" s="31"/>
-    </row>
-    <row r="71" spans="1:18" ht="72">
-      <c r="A71" s="5">
+      <c r="R70" s="36"/>
+    </row>
+    <row r="71" ht="72" spans="1:18">
+      <c r="A71" s="13">
         <v>45352</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14">
+        <v>1</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="33">
         <v>3.5</v>
       </c>
-      <c r="J71" s="6" t="s">
+      <c r="J71" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="L71" s="27">
-        <v>0</v>
-      </c>
-      <c r="M71" s="2">
+      <c r="L71" s="37">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="9">
         <v>4</v>
       </c>
-      <c r="O71" s="2">
+      <c r="O71" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P71" s="2">
+      <c r="P71" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="Q71" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R71" s="31"/>
-    </row>
-    <row r="72" spans="1:18" ht="28.8">
-      <c r="A72" s="5">
+      <c r="R71" s="36"/>
+    </row>
+    <row r="72" ht="28.8" spans="1:18">
+      <c r="A72" s="13">
         <v>45352</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I72" s="24">
-        <v>2</v>
-      </c>
-      <c r="J72" s="6" t="s">
+      <c r="I72" s="33">
+        <v>2</v>
+      </c>
+      <c r="J72" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L72" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O72" s="2">
+      <c r="O72" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P72" s="2">
+      <c r="P72" s="9">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="Q72" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R72" s="31"/>
+      <c r="R72" s="36"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="5">
+      <c r="A73" s="13">
         <v>45352</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="33">
         <v>4</v>
       </c>
-      <c r="J73" s="6" t="s">
+      <c r="J73" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L73" s="27">
+      <c r="L73" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P73" s="2">
+      <c r="P73" s="9">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="Q73" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R73" s="31"/>
-    </row>
-    <row r="74" spans="1:18" ht="57.6">
-      <c r="A74" s="5">
+      <c r="R73" s="36"/>
+    </row>
+    <row r="74" ht="43.2" spans="1:18">
+      <c r="A74" s="13">
         <v>45352</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6">
-        <v>1</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14">
+        <v>1</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="33">
         <v>4</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="L74" s="27">
+      <c r="L74" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="9">
         <v>4</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O74" s="2">
+      <c r="O74" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2">
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R74" s="31"/>
-    </row>
-    <row r="75" spans="1:18" ht="43.2">
-      <c r="A75" s="5">
+      <c r="R74" s="36"/>
+    </row>
+    <row r="75" ht="43.2" spans="1:18">
+      <c r="A75" s="13">
         <v>45352</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="33">
         <v>3</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="L75" s="27">
+      <c r="L75" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P75" s="2">
+      <c r="P75" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="Q75" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R75" s="31"/>
-    </row>
-    <row r="76" spans="1:18" ht="28.8">
-      <c r="A76" s="5">
+      <c r="R75" s="36"/>
+    </row>
+    <row r="76" ht="28.8" spans="1:18">
+      <c r="A76" s="13">
         <v>45352</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I76" s="24">
-        <v>2</v>
-      </c>
-      <c r="J76" s="6" t="s">
+      <c r="I76" s="33">
+        <v>2</v>
+      </c>
+      <c r="J76" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="L76" s="27">
+      <c r="L76" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O76" s="2">
+      <c r="O76" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P76" s="2">
+      <c r="P76" s="9">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="Q76" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R76" s="31"/>
-    </row>
-    <row r="77" spans="1:18" ht="57.6">
-      <c r="A77" s="5">
+      <c r="R76" s="36"/>
+    </row>
+    <row r="77" ht="57.6" spans="1:18">
+      <c r="A77" s="13">
         <v>45353</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="33">
         <v>3</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="L77" s="27">
+      <c r="L77" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="9">
         <v>3</v>
       </c>
-      <c r="O77" s="2">
+      <c r="O77" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2">
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R77" s="31"/>
-    </row>
-    <row r="78" spans="1:18" ht="43.2">
-      <c r="A78" s="5">
+      <c r="R77" s="36"/>
+    </row>
+    <row r="78" ht="28.8" spans="1:18">
+      <c r="A78" s="13">
         <v>45353</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6">
-        <v>1</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14">
+        <v>1</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="33">
         <v>3</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K78" s="6" t="s">
+      <c r="K78" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="L78" s="27">
+      <c r="L78" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="9">
         <v>3</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O78" s="2">
+      <c r="O78" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2">
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R78" s="31"/>
-    </row>
-    <row r="79" spans="1:18" ht="43.2">
-      <c r="A79" s="5">
+      <c r="R78" s="36"/>
+    </row>
+    <row r="79" ht="43.2" spans="1:18">
+      <c r="A79" s="13">
         <v>45353</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14">
+        <v>1</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="I79" s="24">
-        <v>2</v>
-      </c>
-      <c r="J79" s="6" t="s">
+      <c r="I79" s="33">
+        <v>2</v>
+      </c>
+      <c r="J79" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="K79" s="6" t="s">
+      <c r="K79" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="L79" s="27">
+      <c r="L79" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="9">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="P79" s="2">
+      <c r="P79" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="Q79" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R79" s="31"/>
-    </row>
-    <row r="80" spans="1:18" ht="43.2">
-      <c r="A80" s="5">
+      <c r="R79" s="36"/>
+    </row>
+    <row r="80" ht="43.2" spans="1:18">
+      <c r="A80" s="13">
         <v>45353</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6">
-        <v>1</v>
-      </c>
-      <c r="H80" s="6" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14">
+        <v>1</v>
+      </c>
+      <c r="H80" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="33">
         <v>3</v>
       </c>
-      <c r="J80" s="28" t="s">
+      <c r="J80" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="K80" s="29" t="s">
+      <c r="K80" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="L80" s="27">
+      <c r="L80" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="R80" s="31"/>
-    </row>
-    <row r="81" spans="1:18" ht="57.6">
-      <c r="A81" s="5">
+      <c r="R80" s="36"/>
+    </row>
+    <row r="81" ht="57.6" spans="1:18">
+      <c r="A81" s="13">
         <v>45353</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14">
+        <v>1</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="33">
         <v>4</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="K81" s="6" t="s">
+      <c r="K81" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="L81" s="27">
+      <c r="L81" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O81" s="2">
+      <c r="O81" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P81" s="2">
+      <c r="P81" s="9">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="Q81" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R81" s="31"/>
-    </row>
-    <row r="82" spans="1:18" ht="28.8">
-      <c r="A82" s="5">
+      <c r="R81" s="36"/>
+    </row>
+    <row r="82" ht="28.8" spans="1:18">
+      <c r="A82" s="13">
         <v>45353</v>
       </c>
-      <c r="B82" s="6">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6" t="s">
+      <c r="B82" s="14">
+        <v>1</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I82" s="33">
         <v>4</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J82" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="L82" s="27">
+      <c r="L82" s="37">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O82" s="2">
+      <c r="O82" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P82" s="2">
+      <c r="P82" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="Q82" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R82" s="31"/>
-    </row>
-    <row r="83" spans="1:18" ht="28.8">
-      <c r="A83" s="5">
+      <c r="R82" s="36"/>
+    </row>
+    <row r="83" ht="28.8" spans="1:18">
+      <c r="A83" s="13">
         <v>45354</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6" t="s">
+      <c r="B83" s="14">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I83" s="24">
+      <c r="I83" s="33">
         <v>4</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J83" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K83" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="L83" s="27">
+      <c r="L83" s="37">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P83" s="2">
+      <c r="P83" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="Q83" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R83" s="31"/>
-    </row>
-    <row r="84" spans="1:18" ht="57.6">
-      <c r="A84" s="5">
+      <c r="R83" s="36"/>
+    </row>
+    <row r="84" ht="57.6" spans="1:18">
+      <c r="A84" s="13">
         <v>45354</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>1</v>
-      </c>
-      <c r="H84" s="6" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14">
+        <v>1</v>
+      </c>
+      <c r="H84" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="33">
         <v>4.5</v>
       </c>
-      <c r="J84" s="6" t="s">
+      <c r="J84" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="L84" s="27">
+      <c r="L84" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P84" s="2">
+      <c r="P84" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="Q84" s="9">
         <f t="shared" si="18"/>
         <v>4.5</v>
       </c>
-      <c r="R84" s="31"/>
+      <c r="R84" s="36"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="5">
+      <c r="A85" s="13">
         <v>45354</v>
       </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6" t="s">
+      <c r="B85" s="14">
+        <v>1</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="33">
         <v>3</v>
       </c>
-      <c r="J85" s="6" t="s">
+      <c r="J85" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="27">
+      <c r="L85" s="37">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P85" s="2">
+      <c r="P85" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="Q85" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R85" s="31"/>
-    </row>
-    <row r="86" spans="1:18" ht="72">
-      <c r="A86" s="5">
+      <c r="R85" s="36"/>
+    </row>
+    <row r="86" ht="72" spans="1:18">
+      <c r="A86" s="13">
         <v>45354</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6">
-        <v>1</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14">
+        <v>1</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="33">
         <v>4</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J86" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K86" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="L86" s="27">
+      <c r="L86" s="37">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O86" s="2">
+      <c r="O86" s="9">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="P86" s="2">
+      <c r="P86" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="Q86" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R86" s="31"/>
-    </row>
-    <row r="87" spans="1:18" ht="43.2">
-      <c r="A87" s="5">
+      <c r="R86" s="36"/>
+    </row>
+    <row r="87" ht="43.2" spans="1:18">
+      <c r="A87" s="13">
         <v>45354</v>
       </c>
-      <c r="B87" s="6">
-        <v>1</v>
-      </c>
-      <c r="C87" s="6">
-        <v>1</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1</v>
-      </c>
-      <c r="E87" s="6">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6">
-        <v>1</v>
-      </c>
-      <c r="G87" s="6">
-        <v>1</v>
-      </c>
-      <c r="H87" s="6" t="s">
+      <c r="B87" s="14">
+        <v>1</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1</v>
+      </c>
+      <c r="D87" s="14">
+        <v>1</v>
+      </c>
+      <c r="E87" s="14">
+        <v>1</v>
+      </c>
+      <c r="F87" s="14">
+        <v>1</v>
+      </c>
+      <c r="G87" s="14">
+        <v>1</v>
+      </c>
+      <c r="H87" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I87" s="24">
+      <c r="I87" s="33">
         <v>3</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K87" s="6" t="s">
+      <c r="K87" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="L87" s="27">
+      <c r="L87" s="37">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87" s="9">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87" s="9">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="O87" s="2">
+      <c r="O87" s="9">
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="P87" s="2">
+      <c r="P87" s="9">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="R87" s="31"/>
-    </row>
-    <row r="88" spans="1:18" ht="43.2">
-      <c r="A88" s="5">
+      <c r="R87" s="36"/>
+    </row>
+    <row r="88" ht="43.2" spans="1:18">
+      <c r="A88" s="13">
         <v>45355</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6">
-        <v>1</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6" t="s">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I88" s="24">
-        <v>1</v>
-      </c>
-      <c r="J88" s="6" t="s">
+      <c r="I88" s="33">
+        <v>1</v>
+      </c>
+      <c r="J88" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K88" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="L88" s="27">
-        <v>0</v>
-      </c>
-      <c r="M88" s="2">
+      <c r="L88" s="37">
+        <v>0</v>
+      </c>
+      <c r="M88" s="9">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="N88" s="2">
-        <v>0</v>
-      </c>
-      <c r="O88" s="2">
-        <v>0</v>
-      </c>
-      <c r="P88" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>0</v>
-      </c>
-      <c r="R88" s="31"/>
-    </row>
-    <row r="89" spans="1:18" ht="28.8">
-      <c r="A89" s="5">
+      <c r="N88" s="9">
+        <v>0</v>
+      </c>
+      <c r="O88" s="9">
+        <v>0</v>
+      </c>
+      <c r="P88" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>0</v>
+      </c>
+      <c r="R88" s="36"/>
+    </row>
+    <row r="89" ht="28.8" spans="1:18">
+      <c r="A89" s="13">
         <v>45355</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6">
-        <v>1</v>
-      </c>
-      <c r="H89" s="6" t="s">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14">
+        <v>1</v>
+      </c>
+      <c r="H89" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I89" s="24">
-        <v>2</v>
-      </c>
-      <c r="J89" s="6" t="s">
+      <c r="I89" s="33">
+        <v>2</v>
+      </c>
+      <c r="J89" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="K89" s="6" t="s">
+      <c r="K89" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="L89" s="27">
-        <v>0</v>
-      </c>
-      <c r="M89" s="2">
+      <c r="L89" s="37">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O89" s="2">
+      <c r="O89" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P89" s="2">
+      <c r="P89" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="Q89" s="9">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="R89" s="31"/>
+      <c r="R89" s="36"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="7"/>
-      <c r="H90" s="26"/>
-      <c r="K90" s="25" t="s">
+      <c r="A90" s="15"/>
+      <c r="H90" s="35"/>
+      <c r="K90" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L90" s="31">
+      <c r="L90" s="36">
         <f t="shared" ref="L90:Q90" si="19">SUM(L37:L89)</f>
         <v>32.5</v>
       </c>
-      <c r="M90" s="31">
+      <c r="M90" s="36">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="N90" s="31">
+      <c r="N90" s="36">
         <f t="shared" si="19"/>
         <v>33.5</v>
       </c>
-      <c r="O90" s="31">
+      <c r="O90" s="36">
         <f t="shared" si="19"/>
         <v>34.5</v>
       </c>
-      <c r="P90" s="31">
+      <c r="P90" s="36">
         <f t="shared" si="19"/>
         <v>34.5</v>
       </c>
-      <c r="Q90" s="31">
+      <c r="Q90" s="36">
         <f t="shared" si="19"/>
         <v>33</v>
       </c>
-      <c r="R90" s="31"/>
+      <c r="R90" s="36"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="7"/>
-      <c r="K91" s="26" t="s">
+      <c r="A91" s="15"/>
+      <c r="K91" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="31">
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36">
         <f>SUM(L90:Q90)</f>
         <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="7"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="31"/>
+      <c r="A92" s="15"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="36"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="L93" s="23"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="31"/>
-    </row>
-    <row r="94" spans="1:18" ht="43.2">
-      <c r="A94" s="5">
-        <v>45356</v>
-      </c>
-      <c r="B94" s="6">
-        <v>1</v>
-      </c>
-      <c r="C94" s="6">
-        <v>1</v>
-      </c>
-      <c r="D94" s="6">
-        <v>1</v>
-      </c>
-      <c r="E94" s="6">
-        <v>1</v>
-      </c>
-      <c r="F94" s="6">
-        <v>1</v>
-      </c>
-      <c r="G94" s="6">
-        <v>1</v>
-      </c>
-      <c r="H94" s="6" t="s">
+      <c r="L93" s="31"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="36"/>
+    </row>
+    <row r="94" ht="43.2" spans="1:18">
+      <c r="A94" s="13">
+        <v>45360</v>
+      </c>
+      <c r="B94" s="14">
+        <v>1</v>
+      </c>
+      <c r="C94" s="14">
+        <v>1</v>
+      </c>
+      <c r="D94" s="14">
+        <v>1</v>
+      </c>
+      <c r="E94" s="14">
+        <v>1</v>
+      </c>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+      <c r="G94" s="14">
+        <v>1</v>
+      </c>
+      <c r="H94" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I94" s="24">
-        <v>2</v>
-      </c>
-      <c r="J94" s="6" t="s">
+      <c r="I94" s="33">
+        <v>2</v>
+      </c>
+      <c r="J94" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="L94" s="27">
+      <c r="L94" s="37">
         <f t="shared" ref="L94:Q94" si="20">B94*$I94</f>
         <v>2</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="9">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="9">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="9">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="9">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="9">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="R94" s="31"/>
+      <c r="R94" s="36"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="5">
+      <c r="A95" s="13">
         <v>45357</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6">
-        <v>1</v>
-      </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6" t="s">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14">
+        <v>1</v>
+      </c>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I95" s="24">
+      <c r="I95" s="33">
         <v>3</v>
       </c>
-      <c r="J95" s="6" t="s">
+      <c r="J95" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K95" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L95" s="27">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2">
-        <v>0</v>
-      </c>
-      <c r="N95" s="2">
-        <v>0</v>
-      </c>
-      <c r="O95" s="2">
+      <c r="L95" s="37">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9">
+        <v>0</v>
+      </c>
+      <c r="O95" s="9">
         <v>3</v>
       </c>
-      <c r="P95" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>0</v>
-      </c>
-      <c r="R95" s="31"/>
+      <c r="P95" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>0</v>
+      </c>
+      <c r="R95" s="36"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="31"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="36"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="31"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="36"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="5">
+      <c r="A98" s="13">
         <v>45357</v>
       </c>
-      <c r="B98" s="6">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6" t="s">
+      <c r="B98" s="14">
+        <v>1</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I98" s="24">
-        <v>2</v>
-      </c>
-      <c r="J98" s="6" t="s">
+      <c r="I98" s="33">
+        <v>2</v>
+      </c>
+      <c r="J98" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L98" s="27">
+      <c r="L98" s="37">
         <f t="shared" ref="L98:Q98" si="21">B98*$I98</f>
         <v>2</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O98" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P98" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="9">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R98" s="31"/>
+      <c r="R98" s="36"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="5">
+      <c r="A99" s="13">
         <v>45358</v>
       </c>
-      <c r="B99" s="6">
-        <v>1</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6" t="s">
+      <c r="B99" s="14">
+        <v>1</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="33">
         <v>3.5</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="J99" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L99" s="27">
+      <c r="L99" s="37">
         <f t="shared" ref="L99:Q99" si="22">B99*$I99</f>
         <v>3.5</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P99" s="2">
+      <c r="P99" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="Q99" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R99" s="31"/>
+      <c r="R99" s="36"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="5">
+      <c r="A100" s="13">
         <v>45358</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6">
-        <v>1</v>
-      </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6" t="s">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14">
+        <v>1</v>
+      </c>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I100" s="24">
+      <c r="I100" s="33">
         <v>3</v>
       </c>
-      <c r="J100" s="6" t="s">
+      <c r="J100" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K100" s="6" t="s">
+      <c r="K100" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L100" s="27">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
-        <v>0</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0</v>
-      </c>
-      <c r="O100" s="2">
+      <c r="L100" s="37">
+        <v>0</v>
+      </c>
+      <c r="M100" s="9">
+        <v>0</v>
+      </c>
+      <c r="N100" s="9">
+        <v>0</v>
+      </c>
+      <c r="O100" s="9">
         <v>3</v>
       </c>
-      <c r="P100" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>0</v>
-      </c>
-      <c r="R100" s="31"/>
+      <c r="P100" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>0</v>
+      </c>
+      <c r="R100" s="36"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="27">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="37">
         <f t="shared" ref="L101:Q101" si="23">B101*$I101</f>
         <v>0</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O101" s="2">
+      <c r="O101" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="P101" s="2">
+      <c r="P101" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="R101" s="31"/>
+      <c r="R101" s="36"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="5">
+      <c r="A102" s="13">
         <v>45359</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6" t="s">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="33">
         <v>2.5</v>
       </c>
-      <c r="J102" s="6" t="s">
+      <c r="J102" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K102" s="6" t="s">
+      <c r="K102" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L102" s="27">
+      <c r="L102" s="37">
         <f t="shared" ref="L102:Q102" si="24">B102*$I102</f>
         <v>0</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N102" s="2">
+      <c r="N102" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O102" s="2">
+      <c r="O102" s="9">
         <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
-      <c r="P102" s="2">
+      <c r="P102" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="Q102" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R102" s="31"/>
+      <c r="R102" s="36"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="5">
+      <c r="A103" s="13">
+        <v>45359</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14">
+        <v>1</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I103" s="33">
+        <v>3</v>
+      </c>
+      <c r="J103" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="L103" s="37"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="36"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="13">
         <v>45360</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6">
-        <v>1</v>
-      </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I103" s="24">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14">
+        <v>1</v>
+      </c>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="33">
         <v>4</v>
       </c>
-      <c r="J103" s="6" t="s">
+      <c r="J104" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K103" s="6" t="s">
+      <c r="K104" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L103" s="27">
-        <f t="shared" ref="L103:Q103" si="25">B103*$I103</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="2">
+      <c r="L104" s="37">
+        <f t="shared" ref="L104:Q104" si="25">B104*$I104</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N103" s="2">
+      <c r="N104" s="9">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O103" s="2">
+      <c r="O104" s="9">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="P103" s="2">
+      <c r="P104" s="9">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="Q104" s="9">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R103" s="31"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="31"/>
+      <c r="R104" s="36"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="31"/>
-    </row>
-    <row r="106" spans="1:18" ht="28.8">
-      <c r="A106" s="5">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="37"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="36"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="36"/>
+    </row>
+    <row r="107" ht="28.8" spans="1:18">
+      <c r="A107" s="13">
         <v>45361</v>
       </c>
-      <c r="B106" s="6">
-        <v>1</v>
-      </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6" t="s">
+      <c r="B107" s="14">
+        <v>1</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I106" s="24">
-        <v>2</v>
-      </c>
-      <c r="J106" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L106" s="27">
-        <f t="shared" ref="L106:Q106" si="26">B106*$I106</f>
-        <v>2</v>
-      </c>
-      <c r="M106" s="2">
+      <c r="I107" s="33">
+        <v>2</v>
+      </c>
+      <c r="J107" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L107" s="37">
+        <f t="shared" ref="L107:Q107" si="26">B107*$I107</f>
+        <v>2</v>
+      </c>
+      <c r="M107" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N106" s="2">
+      <c r="N107" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O106" s="2">
+      <c r="O107" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P106" s="2">
+      <c r="P107" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q106" s="2">
+      <c r="Q107" s="9">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R106" s="31"/>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="5">
+      <c r="R107" s="36"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="13">
         <v>45362</v>
       </c>
-      <c r="B107" s="6">
-        <v>1</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6" t="s">
+      <c r="B108" s="14">
+        <v>1</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I108" s="33">
         <v>3.5</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J108" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K107" s="6" t="s">
+      <c r="K108" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L107" s="27">
-        <f t="shared" ref="L107:Q107" si="27">B107*$I107</f>
+      <c r="L108" s="37">
+        <f t="shared" ref="L108:Q108" si="27">B108*$I108</f>
         <v>3.5</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M108" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N107" s="2">
+      <c r="N108" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O107" s="2">
+      <c r="O108" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="P107" s="2">
+      <c r="P108" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q107" s="2">
+      <c r="Q108" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R107" s="31"/>
-    </row>
-    <row r="108" spans="1:18" ht="28.8">
-      <c r="A108" s="5">
+      <c r="R108" s="36"/>
+    </row>
+    <row r="109" ht="28.8" spans="1:18">
+      <c r="A109" s="13">
         <v>45366</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6">
-        <v>1</v>
-      </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I108" s="24">
-        <v>2</v>
-      </c>
-      <c r="J108" s="6" t="s">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14">
+        <v>1</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I109" s="33">
+        <v>2</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L109" s="37"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9">
+        <v>2</v>
+      </c>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="36"/>
+    </row>
+    <row r="110" ht="28.8" spans="1:18">
+      <c r="A110" s="13">
+        <v>45367</v>
+      </c>
+      <c r="B110" s="14">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I110" s="33">
+        <v>2</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L110" s="37">
+        <f t="shared" ref="L110:Q110" si="28">B110*$I110</f>
+        <v>2</v>
+      </c>
+      <c r="M110" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="36"/>
+    </row>
+    <row r="111" ht="28.8" spans="1:18">
+      <c r="A111" s="13">
+        <v>45367</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14">
+        <v>1</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I111" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L111" s="37"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="36"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="13">
+        <v>45367</v>
+      </c>
+      <c r="B112" s="14">
+        <v>1</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I112" s="33">
+        <v>3</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L112" s="37">
+        <f t="shared" ref="L112:Q112" si="29">B112*$I112</f>
+        <v>3</v>
+      </c>
+      <c r="M112" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="36"/>
+    </row>
+    <row r="113" ht="28.8" spans="1:18">
+      <c r="A113" s="13">
+        <v>45367</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14">
+        <v>1</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I113" s="33">
+        <v>5</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="K113" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K108" s="6" t="s">
+      <c r="L113" s="37"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="36"/>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="13">
+        <v>45368</v>
+      </c>
+      <c r="B114" s="14">
+        <v>1</v>
+      </c>
+      <c r="C114" s="14">
+        <v>1</v>
+      </c>
+      <c r="D114" s="14">
+        <v>1</v>
+      </c>
+      <c r="E114" s="14">
+        <v>1</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+      <c r="G114" s="14">
+        <v>1</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" s="33">
+        <v>2</v>
+      </c>
+      <c r="J114" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L114" s="37">
+        <f t="shared" ref="L114:Q114" si="30">B114*$I114</f>
+        <v>2</v>
+      </c>
+      <c r="M114" s="9">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="N114" s="9">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="O114" s="9">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="P114" s="9">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="Q114" s="9">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="R114" s="36"/>
+    </row>
+    <row r="115" ht="28.8" spans="1:18">
+      <c r="A115" s="13">
+        <v>45368</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14">
+        <v>1</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I115" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="J115" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L115" s="37"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="36"/>
+    </row>
+    <row r="116" ht="28.8" spans="1:18">
+      <c r="A116" s="13">
+        <v>45368</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I116" s="33">
+        <v>6</v>
+      </c>
+      <c r="J116" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="L108" s="27"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2">
-        <v>2</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="31"/>
-    </row>
-    <row r="109" spans="1:18" ht="28.8">
-      <c r="A109" s="5">
-        <v>45367</v>
-      </c>
-      <c r="B109" s="6">
-        <v>1</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I109" s="24">
-        <v>2</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L109" s="27">
-        <f t="shared" ref="L109:Q109" si="28">B109*$I109</f>
-        <v>2</v>
-      </c>
-      <c r="M109" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O109" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="P109" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Q109" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="R109" s="31"/>
-    </row>
-    <row r="110" spans="1:18" ht="28.8">
-      <c r="A110" s="5">
-        <v>45367</v>
-      </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6">
-        <v>1</v>
-      </c>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I110" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L110" s="27"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="31"/>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="A111" s="5">
-        <v>45367</v>
-      </c>
-      <c r="B111" s="6">
-        <v>1</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I111" s="24">
-        <v>3</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L111" s="27">
-        <f t="shared" ref="L111:Q111" si="29">B111*$I111</f>
-        <v>3</v>
-      </c>
-      <c r="M111" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N111" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O111" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P111" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Q111" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R111" s="31"/>
-    </row>
-    <row r="112" spans="1:18">
-      <c r="A112" s="5">
-        <v>45368</v>
-      </c>
-      <c r="B112" s="6">
-        <v>1</v>
-      </c>
-      <c r="C112" s="6">
-        <v>1</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1</v>
-      </c>
-      <c r="E112" s="6">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6">
-        <v>1</v>
-      </c>
-      <c r="H112" s="6" t="s">
+      <c r="K116" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L116" s="37"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="36"/>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="13">
+        <v>45369</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14">
+        <v>1</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I117" s="33">
+        <v>2</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L117" s="37"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="36"/>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="13">
+        <v>45369</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14">
+        <v>1</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I112" s="24">
-        <v>2</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="L112" s="27">
-        <f t="shared" ref="L112:Q112" si="30">B112*$I112</f>
-        <v>2</v>
-      </c>
-      <c r="M112" s="2">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="N112" s="2">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="O112" s="2">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="P112" s="2">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="Q112" s="2">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="R112" s="31"/>
-    </row>
-    <row r="113" spans="1:18" ht="28.8">
-      <c r="A113" s="5">
-        <v>45368</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6">
-        <v>1</v>
-      </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="J113" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K113" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="L113" s="27"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="31"/>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="A114" s="5">
+      <c r="I118" s="33">
+        <v>2</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K118" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L118" s="37">
+        <v>0</v>
+      </c>
+      <c r="M118" s="9">
+        <v>0</v>
+      </c>
+      <c r="N118" s="9">
+        <v>0</v>
+      </c>
+      <c r="O118" s="9">
+        <v>2</v>
+      </c>
+      <c r="P118" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="9">
+        <v>0</v>
+      </c>
+      <c r="R118" s="36"/>
+    </row>
+    <row r="119" ht="28.8" spans="1:18">
+      <c r="A119" s="13">
         <v>45369</v>
       </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6" t="s">
+      <c r="B119" s="14">
+        <v>1</v>
+      </c>
+      <c r="C119" s="14">
+        <v>0</v>
+      </c>
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0</v>
+      </c>
+      <c r="H119" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I114" s="24">
-        <v>2</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L114" s="27">
-        <v>0</v>
-      </c>
-      <c r="M114" s="2">
-        <v>0</v>
-      </c>
-      <c r="N114" s="2">
-        <v>0</v>
-      </c>
-      <c r="O114" s="2">
-        <v>2</v>
-      </c>
-      <c r="P114" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="2">
-        <v>0</v>
-      </c>
-      <c r="R114" s="31"/>
-    </row>
-    <row r="115" spans="1:18" ht="28.8">
-      <c r="A115" s="5">
-        <v>45369</v>
-      </c>
-      <c r="B115" s="6">
-        <v>1</v>
-      </c>
-      <c r="C115" s="6">
-        <v>0</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>0</v>
-      </c>
-      <c r="G115" s="6">
-        <v>0</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I115" s="24">
-        <v>2</v>
-      </c>
-      <c r="J115" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="L115" s="27">
-        <f t="shared" ref="L115:Q115" si="31">B115*$I115</f>
-        <v>2</v>
-      </c>
-      <c r="M115" s="2">
+      <c r="I119" s="33">
+        <v>2</v>
+      </c>
+      <c r="J119" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L119" s="37">
+        <f t="shared" ref="L119:Q119" si="31">B119*$I119</f>
+        <v>2</v>
+      </c>
+      <c r="M119" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N115" s="2">
+      <c r="N119" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O115" s="2">
+      <c r="O119" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P115" s="2">
+      <c r="P119" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q115" s="2">
+      <c r="Q119" s="9">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R115" s="31"/>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="A116" s="7"/>
-      <c r="H116" s="26"/>
-      <c r="K116" s="25" t="s">
+      <c r="R119" s="36"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="15"/>
+      <c r="H120" s="35"/>
+      <c r="K120" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L116">
-        <f t="shared" ref="L116:Q116" si="32">SUM(L94:L112)</f>
+      <c r="L120">
+        <f>SUM(L94:L114)</f>
         <v>20</v>
       </c>
-      <c r="M116">
-        <f t="shared" si="32"/>
+      <c r="M120">
+        <f>SUM(M94:M114)</f>
         <v>4</v>
       </c>
-      <c r="N116">
-        <f t="shared" si="32"/>
+      <c r="N120">
+        <f>SUM(N94:N114)</f>
         <v>4</v>
       </c>
-      <c r="O116">
-        <f t="shared" si="32"/>
+      <c r="O120">
+        <f>SUM(O94:O114)</f>
         <v>20</v>
       </c>
-      <c r="P116" s="31">
-        <f t="shared" si="32"/>
+      <c r="P120" s="45">
+        <f>SUM(P94:P119)</f>
+        <v>20</v>
+      </c>
+      <c r="Q120" s="36">
+        <f>SUM(Q94:Q114)</f>
         <v>4</v>
       </c>
-      <c r="Q116" s="31">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="R116" s="31"/>
-    </row>
-    <row r="117" spans="1:18">
-      <c r="A117" s="7"/>
-      <c r="K117" s="26" t="s">
+      <c r="R120" s="36"/>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="15"/>
+      <c r="K121" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="P117" s="31"/>
-      <c r="Q117" s="31"/>
-      <c r="R117" s="31">
-        <f>SUM(L116:Q116)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
-      <c r="A118" s="7"/>
-      <c r="K118" s="26"/>
-      <c r="P118" s="31"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="31"/>
-    </row>
-    <row r="119" spans="1:18">
-      <c r="A119" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L119" s="23"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="30"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="31"/>
-    </row>
-    <row r="120" spans="1:18">
-      <c r="A120" s="35"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="27">
-        <f t="shared" ref="L120" si="33">B120*$I120</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="41">
-        <f t="shared" ref="M120" si="34">C120*$I120</f>
-        <v>0</v>
-      </c>
-      <c r="N120" s="41">
-        <f t="shared" ref="N120" si="35">D120*$I120</f>
-        <v>0</v>
-      </c>
-      <c r="O120" s="41">
-        <f t="shared" ref="O120" si="36">E120*$I120</f>
-        <v>0</v>
-      </c>
-      <c r="P120" s="42">
-        <f t="shared" ref="P120:Q120" si="37">F120*$I120</f>
-        <v>0</v>
-      </c>
-      <c r="Q120" s="42">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R120" s="31">
-        <f>SUM(L127:P127)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
-      <c r="A121" s="35"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="29"/>
-      <c r="L121" s="26"/>
-      <c r="M121" s="26"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="25"/>
-      <c r="Q121" s="25"/>
-      <c r="R121" s="31"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="36"/>
+      <c r="R121" s="36">
+        <f>SUM(L120:Q120)</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="122" spans="1:18">
-      <c r="A122" s="7"/>
-      <c r="H122" s="26"/>
-      <c r="K122" s="25" t="s">
+      <c r="A122" s="15"/>
+      <c r="K122" s="35"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="36"/>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L123" s="31"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="34"/>
+      <c r="R123" s="36"/>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="44"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="37">
+        <f t="shared" ref="L124" si="32">B124*$I124</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="47">
+        <f t="shared" ref="M124" si="33">C124*$I124</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="47">
+        <f t="shared" ref="N124" si="34">D124*$I124</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="47">
+        <f t="shared" ref="O124" si="35">E124*$I124</f>
+        <v>0</v>
+      </c>
+      <c r="P124" s="48">
+        <f t="shared" ref="P124:Q124" si="36">F124*$I124</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="48">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="36">
+        <f>SUM(L131:P131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="44"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="34"/>
+      <c r="Q125" s="34"/>
+      <c r="R125" s="36"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="15"/>
+      <c r="H126" s="35"/>
+      <c r="K126" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L122">
-        <f>SUM(L120:L121)</f>
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <f t="shared" ref="M122" si="38">SUM(M120:M121)</f>
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <f t="shared" ref="N122" si="39">SUM(N120:N121)</f>
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <f t="shared" ref="O122" si="40">SUM(O120:O121)</f>
-        <v>0</v>
-      </c>
-      <c r="P122" s="31">
-        <f t="shared" ref="P122:Q122" si="41">SUM(P120:P121)</f>
-        <v>0</v>
-      </c>
-      <c r="Q122" s="31">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R122" s="31"/>
-    </row>
-    <row r="123" spans="1:18">
-      <c r="A123" s="7"/>
-      <c r="K123" t="s">
-        <v>181</v>
-      </c>
-      <c r="P123" s="31"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="31">
-        <f>SUM(L122:Q122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18">
-      <c r="A124" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L124" s="23"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="30"/>
-      <c r="Q124" s="25"/>
-    </row>
-    <row r="125" spans="1:18">
-      <c r="A125" s="35"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="27">
-        <f t="shared" ref="L125" si="42">B125*$I125</f>
-        <v>0</v>
-      </c>
-      <c r="M125" s="41">
-        <f t="shared" ref="M125" si="43">C125*$I125</f>
-        <v>0</v>
-      </c>
-      <c r="N125" s="41">
-        <f t="shared" ref="N125" si="44">D125*$I125</f>
-        <v>0</v>
-      </c>
-      <c r="O125" s="41">
-        <f t="shared" ref="O125" si="45">E125*$I125</f>
-        <v>0</v>
-      </c>
-      <c r="P125" s="42">
-        <f t="shared" ref="P125:Q125" si="46">F125*$I125</f>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="42">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="A126" s="35"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
+      <c r="L126">
+        <f>SUM(L124:L125)</f>
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <f t="shared" ref="M126" si="37">SUM(M124:M125)</f>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" ref="N126" si="38">SUM(N124:N125)</f>
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <f t="shared" ref="O126" si="39">SUM(O124:O125)</f>
+        <v>0</v>
+      </c>
+      <c r="P126" s="36">
+        <f t="shared" ref="P126:Q126" si="40">SUM(P124:P125)</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="36">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="36"/>
     </row>
     <row r="127" spans="1:18">
-      <c r="A127" s="7"/>
-      <c r="H127" s="26"/>
-      <c r="K127" s="25" t="s">
+      <c r="A127" s="15"/>
+      <c r="K127" t="s">
+        <v>198</v>
+      </c>
+      <c r="P127" s="36"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="36">
+        <f>SUM(L126:Q126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L128" s="31"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="34"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="44"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="37">
+        <f t="shared" ref="L129" si="41">B129*$I129</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="47">
+        <f t="shared" ref="M129" si="42">C129*$I129</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="47">
+        <f t="shared" ref="N129" si="43">D129*$I129</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="47">
+        <f t="shared" ref="O129" si="44">E129*$I129</f>
+        <v>0</v>
+      </c>
+      <c r="P129" s="48">
+        <f t="shared" ref="P129:Q129" si="45">F129*$I129</f>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="48">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="44"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="34"/>
+      <c r="Q130" s="34"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="15"/>
+      <c r="H131" s="35"/>
+      <c r="K131" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L127">
-        <f>SUM(L125:L126)</f>
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <f t="shared" ref="M127" si="47">SUM(M125:M126)</f>
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <f t="shared" ref="N127" si="48">SUM(N125:N126)</f>
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <f t="shared" ref="O127" si="49">SUM(O125:O126)</f>
-        <v>0</v>
-      </c>
-      <c r="P127" s="31">
-        <f t="shared" ref="P127:Q127" si="50">SUM(P125:P126)</f>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="31">
+      <c r="L131">
+        <f>SUM(L129:L130)</f>
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131" si="46">SUM(M129:M130)</f>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131" si="47">SUM(N129:N130)</f>
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <f t="shared" ref="O131" si="48">SUM(O129:O130)</f>
+        <v>0</v>
+      </c>
+      <c r="P131" s="36">
+        <f t="shared" ref="P131:Q131" si="49">SUM(P129:P130)</f>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="36">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="15"/>
+      <c r="K132" t="s">
+        <v>200</v>
+      </c>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="36"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="15"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="15"/>
+      <c r="K134" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="L134">
+        <f t="shared" ref="L134:Q134" si="50">L34+L90+L120+L126+L131</f>
+        <v>66.5</v>
+      </c>
+      <c r="M134">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="A128" s="7"/>
-      <c r="K128" t="s">
-        <v>183</v>
-      </c>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-    </row>
-    <row r="129" spans="1:17">
-      <c r="A129" s="7"/>
-      <c r="P129" s="31"/>
-      <c r="Q129" s="31"/>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="A130" s="7"/>
-      <c r="K130" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="L130">
-        <f>L34+L90+L116+L122+L127</f>
-        <v>66.5</v>
-      </c>
-      <c r="M130">
-        <f>M34+M90+M116+M122+M127</f>
         <v>52.5</v>
       </c>
-      <c r="N130">
-        <f>N34+N90+N116+N122+N127</f>
+      <c r="N134">
+        <f t="shared" si="50"/>
         <v>54</v>
       </c>
-      <c r="O130">
-        <f>O34+O90+O116+O122+O127</f>
+      <c r="O134">
+        <f t="shared" si="50"/>
         <v>68.5</v>
       </c>
-      <c r="P130" s="31">
-        <f>P34+P90+P116+P122+P127</f>
-        <v>55</v>
-      </c>
-      <c r="Q130" s="31">
-        <f>Q34+Q90+Q116+Q122+Q127</f>
+      <c r="P134" s="36">
+        <f t="shared" si="50"/>
+        <v>71</v>
+      </c>
+      <c r="Q134" s="36">
+        <f t="shared" si="50"/>
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="28.8">
-      <c r="A131" s="36"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="L131" s="37"/>
-      <c r="M131" s="37"/>
-      <c r="N131" s="37"/>
-      <c r="O131" s="37"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="34"/>
+    <row r="135" spans="1:17">
+      <c r="A135" s="49"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="50"/>
+      <c r="K135" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="L135" s="50"/>
+      <c r="M135" s="50"/>
+      <c r="N135" s="50"/>
+      <c r="O135" s="50"/>
+      <c r="P135" s="43"/>
+      <c r="Q135" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="S3:S11"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="L15:P15"/>
@@ -6476,8 +7225,10 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="K15:K16"/>
+    <mergeCell ref="S3:S11"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/blog Milestone 3.xlsx
+++ b/blog Milestone 3.xlsx
@@ -544,25 +544,25 @@
     <t>Reviewed the code and merged</t>
   </si>
   <si>
-    <t>Coding and Ocl</t>
+    <t>Coding and ocl</t>
   </si>
   <si>
     <t>Written ocl constraints and updated code.</t>
   </si>
   <si>
+    <t>Ocl implementation for presentation room code.</t>
+  </si>
+  <si>
+    <t>Report work</t>
+  </si>
+  <si>
+    <t>Edit Report</t>
+  </si>
+  <si>
+    <t>implementation of the OCL table</t>
+  </si>
+  <si>
     <t>Ocl for Presentation room</t>
-  </si>
-  <si>
-    <t>Ocl implementation for presentation room code.</t>
-  </si>
-  <si>
-    <t>Report work</t>
-  </si>
-  <si>
-    <t>Edit Report</t>
-  </si>
-  <si>
-    <t>implementation of the OCL table</t>
   </si>
   <si>
     <t>Drawing object diagrams</t>
@@ -647,13 +647,12 @@
   <fonts count="4">
     <font>
       <sz val="11.0"/>
-      <color/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -939,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1045,23 +1044,17 @@
     <xf borderId="27" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="2" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="3" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5792,7 +5785,7 @@
       <c r="R108" s="29"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="47">
+      <c r="A109" s="38">
         <v>45362.0</v>
       </c>
       <c r="B109" s="39"/>
@@ -5800,43 +5793,43 @@
       <c r="D109" s="39"/>
       <c r="E109" s="39"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="48">
+      <c r="G109" s="39">
         <v>1.0</v>
       </c>
       <c r="H109" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I109" s="49">
+      <c r="I109" s="40">
         <v>3.5</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="J109" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="K109" s="48" t="s">
+      <c r="K109" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="L109" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="M109" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N109" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="O109" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="P109" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="Q109" s="51">
+      <c r="L109" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="M109" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="N109" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="O109" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="P109" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" s="28">
         <v>3.5</v>
       </c>
       <c r="R109" s="29"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="47">
+      <c r="A110" s="48">
         <v>45363.0</v>
       </c>
       <c r="B110" s="39"/>
@@ -5844,43 +5837,43 @@
       <c r="D110" s="39"/>
       <c r="E110" s="39"/>
       <c r="F110" s="39"/>
-      <c r="G110" s="48">
+      <c r="G110" s="39">
         <v>1.0</v>
       </c>
       <c r="H110" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I110" s="49">
+      <c r="I110" s="40">
         <v>3.0</v>
       </c>
-      <c r="J110" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="K110" s="48" t="s">
+      <c r="J110" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K110" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="L110" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="M110" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N110" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="O110" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="P110" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="Q110" s="51">
+      <c r="L110" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="M110" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="N110" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="O110" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="P110" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" s="28">
         <v>3.0</v>
       </c>
       <c r="R110" s="29"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="47">
+      <c r="A111" s="48">
         <v>45364.0</v>
       </c>
       <c r="B111" s="39"/>
@@ -5888,37 +5881,37 @@
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
       <c r="F111" s="39"/>
-      <c r="G111" s="48">
+      <c r="G111" s="39">
         <v>1.0</v>
       </c>
       <c r="H111" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I111" s="49">
+      <c r="I111" s="40">
         <v>4.0</v>
       </c>
-      <c r="J111" s="52" t="s">
+      <c r="J111" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="K111" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="L111" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="M111" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N111" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="O111" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="P111" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="Q111" s="51">
+      <c r="K111" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="L111" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="M111" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="N111" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="O111" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="P111" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" s="28">
         <v>4.0</v>
       </c>
       <c r="R111" s="29"/>
@@ -5936,16 +5929,16 @@
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
       <c r="H112" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I112" s="40">
         <v>2.0</v>
       </c>
       <c r="J112" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K112" s="39" t="s">
         <v>182</v>
-      </c>
-      <c r="K112" s="39" t="s">
-        <v>183</v>
       </c>
       <c r="L112" s="44"/>
       <c r="M112" s="28"/>
@@ -5966,37 +5959,37 @@
       <c r="D113" s="39"/>
       <c r="E113" s="39"/>
       <c r="F113" s="39"/>
-      <c r="G113" s="48">
+      <c r="G113" s="39">
         <v>1.0</v>
       </c>
       <c r="H113" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="I113" s="49">
+      <c r="I113" s="40">
         <v>4.0</v>
       </c>
       <c r="J113" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="K113" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="K113" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="L113" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="M113" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N113" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="O113" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="P113" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="Q113" s="51">
+      <c r="L113" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="M113" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="N113" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="O113" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="P113" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Q113" s="28">
         <v>4.0</v>
       </c>
       <c r="R113" s="29"/>
@@ -6098,7 +6091,7 @@
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
       <c r="H116" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I116" s="40">
         <v>3.0</v>
@@ -6350,7 +6343,7 @@
         <v>2.0</v>
       </c>
       <c r="J122" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K122" s="39" t="s">
         <v>198</v>
@@ -6384,37 +6377,37 @@
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
-      <c r="G123" s="48">
+      <c r="G123" s="39">
         <v>1.0</v>
       </c>
       <c r="H123" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I123" s="49">
+      <c r="I123" s="40">
         <v>2.0</v>
       </c>
-      <c r="J123" s="48" t="s">
+      <c r="J123" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="K123" s="48" t="s">
+      <c r="K123" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="L123" s="50">
-        <v>0.0</v>
-      </c>
-      <c r="M123" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="N123" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="O123" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="P123" s="51">
-        <v>0.0</v>
-      </c>
-      <c r="Q123" s="51">
+      <c r="L123" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="M123" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="N123" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="O123" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="P123" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="Q123" s="28">
         <v>2.0</v>
       </c>
       <c r="R123" s="29"/>
@@ -6543,7 +6536,7 @@
       <c r="R128" s="29"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="47"/>
+      <c r="A129" s="50"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
       <c r="D129" s="45"/>
@@ -6551,30 +6544,30 @@
       <c r="F129" s="45"/>
       <c r="G129" s="45"/>
       <c r="H129" s="45"/>
-      <c r="I129" s="53"/>
+      <c r="I129" s="51"/>
       <c r="J129" s="45"/>
       <c r="K129" s="46"/>
       <c r="L129" s="44" t="str">
         <f t="shared" ref="L129:Q129" si="88">B129*$I129</f>
         <v>0</v>
       </c>
-      <c r="M129" s="54" t="str">
+      <c r="M129" s="52" t="str">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="N129" s="54" t="str">
+      <c r="N129" s="52" t="str">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="O129" s="54" t="str">
+      <c r="O129" s="52" t="str">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="P129" s="55" t="str">
+      <c r="P129" s="53" t="str">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="Q129" s="55" t="str">
+      <c r="Q129" s="53" t="str">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
@@ -6584,7 +6577,7 @@
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="47"/>
+      <c r="A130" s="50"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
       <c r="D130" s="45"/>
@@ -6592,7 +6585,7 @@
       <c r="F130" s="45"/>
       <c r="G130" s="45"/>
       <c r="H130" s="45"/>
-      <c r="I130" s="53"/>
+      <c r="I130" s="51"/>
       <c r="J130" s="45"/>
       <c r="K130" s="46"/>
       <c r="L130" s="42"/>
@@ -6659,7 +6652,7 @@
       <c r="Q133" s="37"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="47"/>
+      <c r="A134" s="50"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
@@ -6667,36 +6660,36 @@
       <c r="F134" s="45"/>
       <c r="G134" s="45"/>
       <c r="H134" s="45"/>
-      <c r="I134" s="53"/>
+      <c r="I134" s="51"/>
       <c r="J134" s="45"/>
       <c r="K134" s="46"/>
       <c r="L134" s="44" t="str">
         <f t="shared" ref="L134:Q134" si="90">B134*$I134</f>
         <v>0</v>
       </c>
-      <c r="M134" s="54" t="str">
+      <c r="M134" s="52" t="str">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="N134" s="54" t="str">
+      <c r="N134" s="52" t="str">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="O134" s="54" t="str">
+      <c r="O134" s="52" t="str">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="P134" s="55" t="str">
+      <c r="P134" s="53" t="str">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="Q134" s="55" t="str">
+      <c r="Q134" s="53" t="str">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="47"/>
+      <c r="A135" s="50"/>
       <c r="B135" s="45"/>
       <c r="C135" s="45"/>
       <c r="D135" s="45"/>
@@ -6704,7 +6697,7 @@
       <c r="F135" s="45"/>
       <c r="G135" s="45"/>
       <c r="H135" s="45"/>
-      <c r="I135" s="53"/>
+      <c r="I135" s="51"/>
       <c r="J135" s="45"/>
       <c r="K135" s="46"/>
       <c r="L135" s="42"/>
@@ -6760,7 +6753,7 @@
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="41"/>
-      <c r="K139" s="56" t="s">
+      <c r="K139" s="54" t="s">
         <v>207</v>
       </c>
       <c r="L139" t="str">
@@ -6789,38 +6782,38 @@
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="57"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="58"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="59" t="s">
+      <c r="A140" s="55"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="56"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="L140" s="58"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="58"/>
-      <c r="O140" s="58"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="56"/>
+      <c r="O140" s="56"/>
       <c r="P140" s="43"/>
       <c r="Q140" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="S3:S11"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="L15:P15"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="S3:S11"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
